--- a/digitizedData/data33kVsubStation-August-19-2023.xlsx
+++ b/digitizedData/data33kVsubStation-August-19-2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susan/Documents/POWER GRID/HW2/digitizedData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2B94EB-E311-CB4E-B83B-4FA255A6044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E88D5B7-EE81-414C-A8BB-BFD323A18485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,19 +134,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -388,14 +386,14 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="10" customWidth="1"/>
     <col min="10" max="10" width="31.83203125" customWidth="1"/>
     <col min="11" max="26" width="11.6640625" customWidth="1"/>
   </cols>
@@ -428,7 +426,7 @@
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -440,9 +438,9 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>44755</v>
-      </c>
-      <c r="I5" s="13">
+        <v>45157</v>
+      </c>
+      <c r="I5" s="11">
         <v>6</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -451,9 +449,9 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>44755.041666666701</v>
-      </c>
-      <c r="I6" s="13" t="s">
+        <v>45157.041666666664</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -462,9 +460,9 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>44755.083333333299</v>
-      </c>
-      <c r="I7" s="13" t="s">
+        <v>45157.08333321759</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -473,9 +471,9 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>44755.125</v>
-      </c>
-      <c r="I8" s="13" t="s">
+        <v>45157.124999826388</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -484,9 +482,9 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>44755.166666666701</v>
-      </c>
-      <c r="I9" s="13" t="s">
+        <v>45157.166666435187</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -495,9 +493,9 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>44755.208333333299</v>
-      </c>
-      <c r="I10" s="13" t="s">
+        <v>45157.208333043978</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -505,31 +503,31 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>44755.25</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="14">
+      <c r="A11" s="2">
+        <v>45157.249999652777</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="12">
         <v>5</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="J11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4">
         <v>73870</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>44755.291666666701</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="A12" s="2">
+        <v>45157.291666261575</v>
+      </c>
+      <c r="I12" s="11">
         <v>5</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -537,10 +535,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>44755.333333333401</v>
-      </c>
-      <c r="I13" s="13">
+      <c r="A13" s="2">
+        <v>45157.333332870374</v>
+      </c>
+      <c r="I13" s="11">
         <v>5.0999999999999996</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -548,10 +546,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>44755.375</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="A14" s="2">
+        <v>45157.374999479165</v>
+      </c>
+      <c r="I14" s="11">
         <v>5.3</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -559,10 +557,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>44755.416666666701</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="A15" s="2">
+        <v>45157.416666087964</v>
+      </c>
+      <c r="I15" s="11">
         <v>5.2</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -570,10 +568,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <v>44755.458333333401</v>
-      </c>
-      <c r="I16" s="13">
+      <c r="A16" s="2">
+        <v>45157.458332696762</v>
+      </c>
+      <c r="I16" s="11">
         <v>5.2</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -581,10 +579,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
-        <v>44755.5</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="A17" s="2">
+        <v>45157.499999305554</v>
+      </c>
+      <c r="I17" s="11">
         <v>5.2</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -592,10 +590,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <v>44755.541666666701</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="A18" s="2">
+        <v>45157.541665914352</v>
+      </c>
+      <c r="I18" s="11">
         <v>5.2</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -603,31 +601,31 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>44755.583333333401</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="15">
+      <c r="A19" s="2">
+        <v>45157.583332523151</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="13">
         <v>5.43</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="8">
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="6">
         <v>73885</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>44755.625</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="A20" s="2">
+        <v>45157.624999131942</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -635,10 +633,10 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>44755.666666666701</v>
-      </c>
-      <c r="I21" s="13">
+      <c r="A21" s="2">
+        <v>45157.66666574074</v>
+      </c>
+      <c r="I21" s="11">
         <v>5.37</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -646,10 +644,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
-        <v>44755.708333333401</v>
-      </c>
-      <c r="I22" s="13" t="s">
+      <c r="A22" s="2">
+        <v>45157.708332349539</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -657,22 +655,22 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
-        <v>44755.750000000102</v>
-      </c>
-      <c r="I23" s="13" t="s">
+      <c r="A23" s="2">
+        <v>45157.74999895833</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
-        <v>44755.791666666701</v>
-      </c>
-      <c r="I24" s="13" t="s">
+      <c r="A24" s="2">
+        <v>45157.791665567129</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -680,10 +678,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <v>44755.833333333401</v>
-      </c>
-      <c r="I25" s="13" t="s">
+      <c r="A25" s="2">
+        <v>45157.833332175927</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -691,10 +689,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
-        <v>44755.875000000102</v>
-      </c>
-      <c r="I26" s="13" t="s">
+      <c r="A26" s="2">
+        <v>45157.874998784719</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -703,30 +701,30 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>44755.916666666701</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="16">
+        <v>45157.916665393517</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="14">
         <v>5</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="10">
+      <c r="J27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="8">
         <v>73894</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>44755.958333333401</v>
-      </c>
-      <c r="I28" s="13">
+        <v>45157.958332002316</v>
+      </c>
+      <c r="I28" s="11">
         <v>6.1</v>
       </c>
       <c r="J28" s="3" t="s">
